--- a/rosters/2023/Milwaukee/Milwaukee.xlsx
+++ b/rosters/2023/Milwaukee/Milwaukee.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
   <si>
     <t>No.</t>
   </si>
@@ -46,36 +46,30 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Jevon Carter</t>
+  </si>
+  <si>
+    <t>Brook Lopez</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
     <t>Bobby Portis</t>
   </si>
   <si>
-    <t>Jevon Carter</t>
-  </si>
-  <si>
-    <t>Brook Lopez</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
     <t>Jrue Holiday</t>
   </si>
   <si>
+    <t>Pat Connaughton</t>
+  </si>
+  <si>
     <t>MarJon Beauchamp</t>
   </si>
   <si>
-    <t>George Hill</t>
-  </si>
-  <si>
-    <t>Jordan Nwora</t>
-  </si>
-  <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
     <t>Wesley Matthews</t>
   </si>
   <si>
@@ -85,93 +79,87 @@
     <t>Thanasis Antetokounmpo</t>
   </si>
   <si>
+    <t>Joe Ingles</t>
+  </si>
+  <si>
     <t>Sandro Mamukelashvili (TW)</t>
   </si>
   <si>
-    <t>Serge Ibaka</t>
-  </si>
-  <si>
-    <t>Joe Ingles</t>
-  </si>
-  <si>
     <t>Khris Middleton</t>
   </si>
   <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>7-0</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
     <t>6-10</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>7-0</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
     <t>6-3</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-6</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>6-11</t>
   </si>
   <si>
     <t>6-7</t>
   </si>
   <si>
+    <t>September 14, 1995</t>
+  </si>
+  <si>
+    <t>April 1, 1988</t>
+  </si>
+  <si>
+    <t>October 8, 1995</t>
+  </si>
+  <si>
     <t>February 10, 1995</t>
   </si>
   <si>
-    <t>September 14, 1995</t>
-  </si>
-  <si>
-    <t>April 1, 1988</t>
-  </si>
-  <si>
-    <t>October 8, 1995</t>
-  </si>
-  <si>
     <t>December 6, 1994</t>
   </si>
   <si>
     <t>June 12, 1990</t>
   </si>
   <si>
+    <t>January 6, 1993</t>
+  </si>
+  <si>
     <t>October 12, 2000</t>
   </si>
   <si>
-    <t>May 4, 1986</t>
-  </si>
-  <si>
-    <t>September 9, 1998</t>
-  </si>
-  <si>
-    <t>January 6, 1993</t>
-  </si>
-  <si>
     <t>October 14, 1986</t>
   </si>
   <si>
@@ -181,39 +169,36 @@
     <t>July 18, 1992</t>
   </si>
   <si>
+    <t>October 2, 1987</t>
+  </si>
+  <si>
     <t>May 23, 1999</t>
   </si>
   <si>
-    <t>September 18, 1989</t>
-  </si>
-  <si>
-    <t>October 2, 1987</t>
-  </si>
-  <si>
     <t>August 12, 1991</t>
   </si>
   <si>
+    <t>July 6, 1990</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>cg</t>
-  </si>
-  <si>
     <t>au</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -223,45 +208,36 @@
     <t>R</t>
   </si>
   <si>
-    <t>2</t>
+    <t>8</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
     <t>Arkansas</t>
   </si>
   <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
     <t>UCLA</t>
   </si>
   <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
     <t>Yakima Valley Community College</t>
   </si>
   <si>
-    <t>IUPUI</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
     <t>Marquette</t>
   </si>
   <si>
@@ -274,36 +250,30 @@
     <t>Texas A&amp;M</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/c/carteje01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/l/lopezbr01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/a/allengr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/portibo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/carteje01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/l/lopezbr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/a/allengr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/a/antetgi01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/holidjr01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/c/connapa01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/beaucma01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/hillge01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/n/nworajo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/c/connapa01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/matthwe02.html</t>
   </si>
   <si>
@@ -313,16 +283,16 @@
     <t>https://www.basketball-reference.com/players/a/antetth01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/i/inglejo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/mamuksa01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/i/ibakase01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/i/inglejo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/middlkh01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/c/crowdja01.html</t>
   </si>
 </sst>
 </file>
@@ -693,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -771,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
         <v>59</v>
       </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -806,34 +776,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>282</v>
+        <v>198</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -841,34 +811,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -882,25 +852,25 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>242</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -914,28 +884,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>205</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -943,34 +913,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -978,34 +948,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1013,34 +983,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1048,34 +1018,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
         <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1083,34 +1053,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1118,34 +1085,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1153,31 +1117,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1185,7 +1152,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -1194,34 +1161,31 @@
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
         <v>55</v>
       </c>
-      <c r="H15" t="s">
-        <v>59</v>
-      </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>25</v>
-      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -1229,89 +1193,25 @@
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F16">
         <v>235</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17">
-        <v>220</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18">
-        <v>222</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1331,8 +1231,6 @@
     <hyperlink ref="K14" r:id="rId13"/>
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Milwaukee/Milwaukee.xlsx
+++ b/rosters/2023/Milwaukee/Milwaukee.xlsx
@@ -55,33 +55,33 @@
     <t>Grayson Allen</t>
   </si>
   <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
     <t>Bobby Portis</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
     <t>Pat Connaughton</t>
   </si>
   <si>
+    <t>Wesley Matthews</t>
+  </si>
+  <si>
     <t>MarJon Beauchamp</t>
   </si>
   <si>
-    <t>Wesley Matthews</t>
-  </si>
-  <si>
     <t>A.J. Green (TW)</t>
   </si>
   <si>
+    <t>Joe Ingles</t>
+  </si>
+  <si>
     <t>Thanasis Antetokounmpo</t>
   </si>
   <si>
-    <t>Joe Ingles</t>
-  </si>
-  <si>
     <t>Sandro Mamukelashvili (TW)</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>6-4</t>
   </si>
   <si>
+    <t>6-3</t>
+  </si>
+  <si>
     <t>6-10</t>
   </si>
   <si>
-    <t>6-3</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
@@ -145,33 +145,33 @@
     <t>October 8, 1995</t>
   </si>
   <si>
+    <t>December 6, 1994</t>
+  </si>
+  <si>
+    <t>June 12, 1990</t>
+  </si>
+  <si>
     <t>February 10, 1995</t>
   </si>
   <si>
-    <t>December 6, 1994</t>
-  </si>
-  <si>
-    <t>June 12, 1990</t>
-  </si>
-  <si>
     <t>January 6, 1993</t>
   </si>
   <si>
+    <t>October 14, 1986</t>
+  </si>
+  <si>
     <t>October 12, 2000</t>
   </si>
   <si>
-    <t>October 14, 1986</t>
-  </si>
-  <si>
     <t>September 27, 1999</t>
   </si>
   <si>
+    <t>October 2, 1987</t>
+  </si>
+  <si>
     <t>July 18, 1992</t>
   </si>
   <si>
-    <t>October 2, 1987</t>
-  </si>
-  <si>
     <t>May 23, 1999</t>
   </si>
   <si>
@@ -196,15 +196,15 @@
     <t>14</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -226,21 +226,21 @@
     <t>Duke</t>
   </si>
   <si>
+    <t>UCLA</t>
+  </si>
+  <si>
     <t>Arkansas</t>
   </si>
   <si>
-    <t>UCLA</t>
-  </si>
-  <si>
     <t>Notre Dame</t>
   </si>
   <si>
+    <t>Marquette</t>
+  </si>
+  <si>
     <t>Yakima Valley Community College</t>
   </si>
   <si>
-    <t>Marquette</t>
-  </si>
-  <si>
     <t>University of Northern Iowa</t>
   </si>
   <si>
@@ -259,31 +259,31 @@
     <t>https://www.basketball-reference.com/players/a/allengr01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/a/antetgi01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/holidjr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/portibo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/a/antetgi01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/holidjr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/connapa01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/matthwe02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/beaucma01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/matthwe02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/g/greenaj01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/i/inglejo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/a/antetth01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/i/inglejo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/mamuksa01.html</t>
@@ -811,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -820,22 +820,19 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
         <v>60</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>81</v>
@@ -846,28 +843,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
         <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>82</v>
@@ -878,19 +878,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -934,7 +934,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
         <v>72</v>
@@ -948,19 +948,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
@@ -969,7 +969,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
         <v>73</v>
@@ -983,19 +983,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
@@ -1004,7 +1004,7 @@
         <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
         <v>74</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1062,19 +1062,19 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>88</v>
@@ -1085,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1094,19 +1094,19 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G13" t="s">
         <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>89</v>
@@ -1208,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>92</v>

--- a/rosters/2023/Milwaukee/Milwaukee.xlsx
+++ b/rosters/2023/Milwaukee/Milwaukee.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>No.</t>
   </si>
@@ -55,42 +55,48 @@
     <t>Grayson Allen</t>
   </si>
   <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
-    <t>Bobby Portis</t>
-  </si>
-  <si>
     <t>Pat Connaughton</t>
   </si>
   <si>
+    <t>MarJon Beauchamp</t>
+  </si>
+  <si>
     <t>Wesley Matthews</t>
   </si>
   <si>
-    <t>MarJon Beauchamp</t>
+    <t>Joe Ingles</t>
   </si>
   <si>
     <t>A.J. Green (TW)</t>
   </si>
   <si>
-    <t>Joe Ingles</t>
-  </si>
-  <si>
     <t>Thanasis Antetokounmpo</t>
   </si>
   <si>
-    <t>Sandro Mamukelashvili (TW)</t>
-  </si>
-  <si>
     <t>Khris Middleton</t>
   </si>
   <si>
     <t>Jae Crowder</t>
   </si>
   <si>
+    <t>Meyers Leonard</t>
+  </si>
+  <si>
+    <t>Lindell Wigginton (TW)</t>
+  </si>
+  <si>
+    <t>Goran Dragić</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
@@ -115,12 +121,12 @@
     <t>6-4</t>
   </si>
   <si>
+    <t>6-10</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
-    <t>6-10</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
@@ -130,12 +136,12 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>6-11</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
+    <t>6-2</t>
+  </si>
+  <si>
     <t>September 14, 1995</t>
   </si>
   <si>
@@ -145,42 +151,48 @@
     <t>October 8, 1995</t>
   </si>
   <si>
+    <t>February 10, 1995</t>
+  </si>
+  <si>
+    <t>June 12, 1990</t>
+  </si>
+  <si>
     <t>December 6, 1994</t>
   </si>
   <si>
-    <t>June 12, 1990</t>
-  </si>
-  <si>
-    <t>February 10, 1995</t>
-  </si>
-  <si>
     <t>January 6, 1993</t>
   </si>
   <si>
+    <t>October 12, 2000</t>
+  </si>
+  <si>
     <t>October 14, 1986</t>
   </si>
   <si>
-    <t>October 12, 2000</t>
+    <t>October 2, 1987</t>
   </si>
   <si>
     <t>September 27, 1999</t>
   </si>
   <si>
-    <t>October 2, 1987</t>
-  </si>
-  <si>
     <t>July 18, 1992</t>
   </si>
   <si>
-    <t>May 23, 1999</t>
-  </si>
-  <si>
     <t>August 12, 1991</t>
   </si>
   <si>
     <t>July 6, 1990</t>
   </si>
   <si>
+    <t>February 27, 1992</t>
+  </si>
+  <si>
+    <t>March 28, 1998</t>
+  </si>
+  <si>
+    <t>May 6, 1986</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -190,33 +202,39 @@
     <t>au</t>
   </si>
   <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>West Virginia</t>
   </si>
   <si>
@@ -226,30 +244,33 @@
     <t>Duke</t>
   </si>
   <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
     <t>UCLA</t>
   </si>
   <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
     <t>Notre Dame</t>
   </si>
   <si>
+    <t>Yakima Valley Community College</t>
+  </si>
+  <si>
     <t>Marquette</t>
   </si>
   <si>
-    <t>Yakima Valley Community College</t>
-  </si>
-  <si>
     <t>University of Northern Iowa</t>
   </si>
   <si>
-    <t>Seton Hall</t>
-  </si>
-  <si>
     <t>Texas A&amp;M</t>
   </si>
   <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/carteje01.html</t>
   </si>
   <si>
@@ -259,40 +280,46 @@
     <t>https://www.basketball-reference.com/players/a/allengr01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/p/portibo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/holidjr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/a/antetgi01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/holidjr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/p/portibo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/connapa01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/beaucma01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/matthwe02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/beaucma01.html</t>
+    <t>https://www.basketball-reference.com/players/i/inglejo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/greenaj01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/i/inglejo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/a/antetth01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/mamuksa01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/middlkh01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/crowdja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/l/leoname01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/wiggili01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/d/dragigo01.html</t>
   </si>
 </sst>
 </file>
@@ -663,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,28 +739,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -747,28 +774,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>282</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -782,28 +809,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>198</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -811,31 +838,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -849,28 +879,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -878,34 +908,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -919,28 +946,28 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>209</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -948,34 +975,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -983,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -992,25 +1019,25 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1018,34 +1045,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1053,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1062,22 +1086,25 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
+        <v>81</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1091,25 +1118,25 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>219</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1117,34 +1144,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1152,66 +1179,133 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <v>260</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17">
+        <v>189</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
         <v>36</v>
       </c>
-      <c r="F16">
-        <v>235</v>
-      </c>
-      <c r="G16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>92</v>
+      <c r="F18">
+        <v>190</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1231,6 +1325,8 @@
     <hyperlink ref="K14" r:id="rId13"/>
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Milwaukee/Milwaukee.xlsx
+++ b/rosters/2023/Milwaukee/Milwaukee.xlsx
@@ -76,12 +76,12 @@
     <t>Joe Ingles</t>
   </si>
   <si>
+    <t>Thanasis Antetokounmpo</t>
+  </si>
+  <si>
     <t>A.J. Green (TW)</t>
   </si>
   <si>
-    <t>Thanasis Antetokounmpo</t>
-  </si>
-  <si>
     <t>Khris Middleton</t>
   </si>
   <si>
@@ -172,12 +172,12 @@
     <t>October 2, 1987</t>
   </si>
   <si>
+    <t>July 18, 1992</t>
+  </si>
+  <si>
     <t>September 27, 1999</t>
   </si>
   <si>
-    <t>July 18, 1992</t>
-  </si>
-  <si>
     <t>August 12, 1991</t>
   </si>
   <si>
@@ -301,10 +301,10 @@
     <t>https://www.basketball-reference.com/players/i/inglejo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/a/antetth01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/g/greenaj01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/a/antetth01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/middlkh01.html</t>
@@ -1077,31 +1077,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>95</v>
@@ -1112,28 +1109,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F13">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
+        <v>81</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>96</v>
@@ -1282,6 +1282,9 @@
     <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
+      </c>
+      <c r="B18">
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
